--- a/FY21Q1-K8S-2培训签到表(2020.11.26-2020.12.22) - to诺达.xlsx
+++ b/FY21Q1-K8S-2培训签到表(2020.11.26-2020.12.22) - to诺达.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="124">
   <si>
     <t xml:space="preserve">思科大连CX Center Training FY21Q1 K8S-2培训签到表
 (培训时间：11月26日-12月22日)     </t>
@@ -80,6 +80,9 @@
     <t>Xun Wang</t>
   </si>
   <si>
+    <t>B</t>
+  </si>
+  <si>
     <t>jinzha4</t>
   </si>
   <si>
@@ -143,6 +146,9 @@
     <t>袁野</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>Hong Yi</t>
   </si>
   <si>
@@ -180,6 +186,9 @@
   </si>
   <si>
     <t>梁矗</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
   <si>
     <t>xiangw</t>
@@ -449,13 +458,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -486,7 +495,135 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,44 +637,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -545,96 +644,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -657,25 +666,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,6 +786,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -699,37 +816,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,19 +828,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,79 +846,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,11 +899,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -924,6 +931,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -934,24 +965,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -971,17 +984,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -991,10 +1000,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1003,134 +1012,134 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1138,6 +1147,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1168,37 +1180,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1542,8 +1551,8 @@
   <sheetPr/>
   <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54:B57"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1552,125 +1561,127 @@
     <col min="2" max="2" width="25.275" customWidth="1"/>
     <col min="3" max="4" width="25.9083333333333" customWidth="1"/>
     <col min="5" max="5" width="29.0916666666667" customWidth="1"/>
-    <col min="6" max="6" width="15.3666666666667" customWidth="1"/>
-    <col min="7" max="7" width="14.275" customWidth="1"/>
+    <col min="6" max="6" width="26.7583333333333" style="3" customWidth="1"/>
+    <col min="7" max="7" width="27.6416666666667" customWidth="1"/>
     <col min="8" max="9" width="14.3666666666667" customWidth="1"/>
     <col min="10" max="17" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="58.5" customHeight="1" spans="1:17">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
     </row>
     <row r="2" ht="20.25" spans="1:17">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="42" customHeight="1" spans="1:17">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="18.75" spans="1:17">
-      <c r="A4" s="11">
+      <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
+      <c r="F4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
       <c r="L4" s="28"/>
@@ -1681,24 +1692,25 @@
       <c r="Q4" s="28"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="18.75" spans="1:17">
-      <c r="A5" s="11">
+      <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="C5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
       <c r="J5" s="28"/>
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
@@ -1709,25 +1721,25 @@
       <c r="Q5" s="28"/>
     </row>
     <row r="6" ht="18.75" spans="1:17">
-      <c r="A6" s="11">
+      <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="C6" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
       <c r="J6" s="29"/>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
@@ -1738,24 +1750,24 @@
       <c r="Q6" s="29"/>
     </row>
     <row r="7" ht="18.75" spans="1:17">
-      <c r="A7" s="11">
+      <c r="A7" s="12">
         <v>4</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="16" t="s">
+      <c r="B7" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="C7" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
       <c r="J7" s="29"/>
       <c r="K7" s="29"/>
       <c r="L7" s="29"/>
@@ -1766,25 +1778,25 @@
       <c r="Q7" s="29"/>
     </row>
     <row r="8" ht="18.75" spans="1:17">
-      <c r="A8" s="11">
+      <c r="A8" s="12">
         <v>5</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="16" t="s">
+      <c r="B8" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="C8" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
       <c r="J8" s="29"/>
       <c r="K8" s="29"/>
       <c r="L8" s="29"/>
@@ -1795,25 +1807,25 @@
       <c r="Q8" s="29"/>
     </row>
     <row r="9" ht="18.75" spans="1:17">
-      <c r="A9" s="11">
+      <c r="A9" s="12">
         <v>6</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="C9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
       <c r="L9" s="29"/>
@@ -1824,24 +1836,25 @@
       <c r="Q9" s="29"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="18.75" spans="1:17">
-      <c r="A10" s="11">
+      <c r="A10" s="12">
         <v>7</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="20" t="s">
+      <c r="B10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="C10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
       <c r="L10" s="28"/>
@@ -1852,25 +1865,25 @@
       <c r="Q10" s="28"/>
     </row>
     <row r="11" s="2" customFormat="1" ht="18.75" spans="1:17">
-      <c r="A11" s="11">
+      <c r="A11" s="12">
         <v>8</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="20" t="s">
+      <c r="B11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="C11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
       <c r="L11" s="28"/>
@@ -1881,25 +1894,25 @@
       <c r="Q11" s="28"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="18.75" spans="1:17">
-      <c r="A12" s="11">
+      <c r="A12" s="12">
         <v>9</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="20" t="s">
+      <c r="B12" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="C12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
       <c r="J12" s="28"/>
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
@@ -1910,25 +1923,27 @@
       <c r="Q12" s="28"/>
     </row>
     <row r="13" ht="18.75" spans="1:17">
-      <c r="A13" s="11">
+      <c r="A13" s="12">
         <v>10</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
+      <c r="F13" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
       <c r="L13" s="29"/>
@@ -1939,25 +1954,27 @@
       <c r="Q13" s="29"/>
     </row>
     <row r="14" ht="18.75" spans="1:17">
-      <c r="A14" s="11">
+      <c r="A14" s="12">
         <v>11</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="16" t="s">
+      <c r="B14" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="C14" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
+      <c r="F14" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
       <c r="J14" s="29"/>
       <c r="K14" s="29"/>
       <c r="L14" s="29"/>
@@ -1968,25 +1985,25 @@
       <c r="Q14" s="29"/>
     </row>
     <row r="15" ht="18.75" spans="1:17">
-      <c r="A15" s="11">
+      <c r="A15" s="12">
         <v>12</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
       <c r="J15" s="29"/>
       <c r="K15" s="29"/>
       <c r="L15" s="29"/>
@@ -1997,24 +2014,27 @@
       <c r="Q15" s="29"/>
     </row>
     <row r="16" s="2" customFormat="1" ht="18.75" spans="1:17">
-      <c r="A16" s="11">
+      <c r="A16" s="12">
         <v>13</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="13" t="s">
+      <c r="B16" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
+      <c r="F16" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
       <c r="J16" s="28"/>
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
@@ -2025,25 +2045,25 @@
       <c r="Q16" s="28"/>
     </row>
     <row r="17" ht="18.75" spans="1:17">
-      <c r="A17" s="11">
+      <c r="A17" s="12">
         <v>14</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="18" t="s">
+      <c r="B17" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
       <c r="J17" s="29"/>
       <c r="K17" s="29"/>
       <c r="L17" s="29"/>
@@ -2054,24 +2074,27 @@
       <c r="Q17" s="29"/>
     </row>
     <row r="18" ht="18.75" spans="1:17">
-      <c r="A18" s="11">
+      <c r="A18" s="12">
         <v>15</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
+      <c r="F18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
       <c r="J18" s="29"/>
       <c r="K18" s="29"/>
       <c r="L18" s="29"/>
@@ -2082,25 +2105,27 @@
       <c r="Q18" s="29"/>
     </row>
     <row r="19" ht="18.75" spans="1:17">
-      <c r="A19" s="11">
+      <c r="A19" s="12">
         <v>16</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="18" t="s">
+      <c r="B19" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
+      <c r="F19" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
       <c r="L19" s="29"/>
@@ -2111,24 +2136,27 @@
       <c r="Q19" s="29"/>
     </row>
     <row r="20" ht="18.75" spans="1:17">
-      <c r="A20" s="11">
+      <c r="A20" s="12">
         <v>17</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="18" t="s">
+      <c r="B20" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
+      <c r="F20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
       <c r="L20" s="29"/>
@@ -2139,25 +2167,25 @@
       <c r="Q20" s="29"/>
     </row>
     <row r="21" s="2" customFormat="1" ht="18.75" spans="1:17">
-      <c r="A21" s="11">
+      <c r="A21" s="12">
         <v>18</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="13" t="s">
+      <c r="B21" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
       <c r="J21" s="28"/>
       <c r="K21" s="28"/>
       <c r="L21" s="28"/>
@@ -2168,25 +2196,25 @@
       <c r="Q21" s="28"/>
     </row>
     <row r="22" s="2" customFormat="1" ht="18.75" spans="1:17">
-      <c r="A22" s="11">
+      <c r="A22" s="12">
         <v>19</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="13" t="s">
+      <c r="B22" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
       <c r="J22" s="28"/>
       <c r="K22" s="28"/>
       <c r="L22" s="28"/>
@@ -2197,25 +2225,27 @@
       <c r="Q22" s="28"/>
     </row>
     <row r="23" ht="18.75" spans="1:17">
-      <c r="A23" s="11">
+      <c r="A23" s="12">
         <v>20</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="18" t="s">
+      <c r="B23" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
+      <c r="C23" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
       <c r="J23" s="29"/>
       <c r="K23" s="29"/>
       <c r="L23" s="29"/>
@@ -2226,25 +2256,27 @@
       <c r="Q23" s="29"/>
     </row>
     <row r="24" ht="18.75" spans="1:17">
-      <c r="A24" s="11">
+      <c r="A24" s="12">
         <v>21</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="16" t="s">
+      <c r="B24" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
+      <c r="F24" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
       <c r="J24" s="29"/>
       <c r="K24" s="29"/>
       <c r="L24" s="29"/>
@@ -2255,25 +2287,27 @@
       <c r="Q24" s="29"/>
     </row>
     <row r="25" ht="18.75" spans="1:17">
-      <c r="A25" s="11">
+      <c r="A25" s="12">
         <v>22</v>
       </c>
-      <c r="B25" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
+      <c r="B25" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
       <c r="J25" s="29"/>
       <c r="K25" s="29"/>
       <c r="L25" s="29"/>
@@ -2284,25 +2318,27 @@
       <c r="Q25" s="29"/>
     </row>
     <row r="26" ht="18.75" spans="1:17">
-      <c r="A26" s="11">
+      <c r="A26" s="12">
         <v>23</v>
       </c>
-      <c r="B26" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
+      <c r="B26" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
       <c r="J26" s="29"/>
       <c r="K26" s="29"/>
       <c r="L26" s="29"/>
@@ -2313,25 +2349,25 @@
       <c r="Q26" s="29"/>
     </row>
     <row r="27" ht="18.75" spans="1:17">
-      <c r="A27" s="11">
+      <c r="A27" s="12">
         <v>24</v>
       </c>
-      <c r="B27" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
+      <c r="B27" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
       <c r="J27" s="29"/>
       <c r="K27" s="29"/>
       <c r="L27" s="29"/>
@@ -2342,25 +2378,25 @@
       <c r="Q27" s="29"/>
     </row>
     <row r="28" ht="18.75" spans="1:17">
-      <c r="A28" s="11">
+      <c r="A28" s="12">
         <v>25</v>
       </c>
-      <c r="B28" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="F28" s="19"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
+      <c r="B28" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
       <c r="J28" s="29"/>
       <c r="K28" s="29"/>
       <c r="L28" s="29"/>
@@ -2371,24 +2407,24 @@
       <c r="Q28" s="29"/>
     </row>
     <row r="29" ht="18.75" spans="1:17">
-      <c r="A29" s="11">
+      <c r="A29" s="12">
         <v>26</v>
       </c>
-      <c r="B29" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
+      <c r="B29" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
       <c r="J29" s="29"/>
       <c r="K29" s="29"/>
       <c r="L29" s="29"/>
@@ -2399,25 +2435,25 @@
       <c r="Q29" s="29"/>
     </row>
     <row r="30" ht="18.75" spans="1:17">
-      <c r="A30" s="11">
+      <c r="A30" s="12">
         <v>27</v>
       </c>
-      <c r="B30" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="F30" s="19"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
+      <c r="B30" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
       <c r="J30" s="29"/>
       <c r="K30" s="29"/>
       <c r="L30" s="29"/>
@@ -2428,25 +2464,25 @@
       <c r="Q30" s="29"/>
     </row>
     <row r="31" ht="18.75" spans="1:17">
-      <c r="A31" s="11">
+      <c r="A31" s="12">
         <v>28</v>
       </c>
-      <c r="B31" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
+      <c r="B31" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
       <c r="J31" s="29"/>
       <c r="K31" s="29"/>
       <c r="L31" s="29"/>
@@ -2457,25 +2493,27 @@
       <c r="Q31" s="29"/>
     </row>
     <row r="32" ht="18.75" spans="1:17">
-      <c r="A32" s="11">
+      <c r="A32" s="12">
         <v>29</v>
       </c>
-      <c r="B32" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="F32" s="19"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
+      <c r="B32" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
       <c r="J32" s="29"/>
       <c r="K32" s="29"/>
       <c r="L32" s="29"/>
@@ -2486,24 +2524,25 @@
       <c r="Q32" s="29"/>
     </row>
     <row r="33" s="2" customFormat="1" ht="18.75" spans="1:17">
-      <c r="A33" s="11">
+      <c r="A33" s="12">
         <v>30</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
+      <c r="B33" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="17"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
       <c r="J33" s="28"/>
       <c r="K33" s="28"/>
       <c r="L33" s="28"/>
@@ -2514,25 +2553,27 @@
       <c r="Q33" s="28"/>
     </row>
     <row r="34" ht="18.75" spans="1:17">
-      <c r="A34" s="11">
+      <c r="A34" s="12">
         <v>31</v>
       </c>
-      <c r="B34" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="F34" s="19"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
+      <c r="B34" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
       <c r="J34" s="29"/>
       <c r="K34" s="29"/>
       <c r="L34" s="29"/>
@@ -2543,25 +2584,25 @@
       <c r="Q34" s="29"/>
     </row>
     <row r="35" s="2" customFormat="1" ht="18.75" spans="1:17">
-      <c r="A35" s="11">
+      <c r="A35" s="12">
         <v>32</v>
       </c>
-      <c r="B35" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
+      <c r="B35" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
       <c r="J35" s="28"/>
       <c r="K35" s="28"/>
       <c r="L35" s="28"/>
@@ -2572,25 +2613,27 @@
       <c r="Q35" s="28"/>
     </row>
     <row r="36" s="2" customFormat="1" ht="18.75" spans="1:17">
-      <c r="A36" s="11">
+      <c r="A36" s="12">
         <v>33</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F36" s="14"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
+      <c r="B36" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
       <c r="J36" s="28"/>
       <c r="K36" s="28"/>
       <c r="L36" s="28"/>
@@ -2601,25 +2644,27 @@
       <c r="Q36" s="28"/>
     </row>
     <row r="37" ht="18.75" spans="1:17">
-      <c r="A37" s="11">
+      <c r="A37" s="12">
         <v>34</v>
       </c>
-      <c r="B37" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="F37" s="19"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
+      <c r="B37" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
       <c r="J37" s="29"/>
       <c r="K37" s="29"/>
       <c r="L37" s="29"/>
@@ -2630,25 +2675,25 @@
       <c r="Q37" s="29"/>
     </row>
     <row r="38" ht="18.75" spans="1:17">
-      <c r="A38" s="11">
+      <c r="A38" s="12">
         <v>35</v>
       </c>
-      <c r="B38" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="F38" s="19"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
+      <c r="B38" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
       <c r="J38" s="29"/>
       <c r="K38" s="29"/>
       <c r="L38" s="29"/>
@@ -2659,24 +2704,24 @@
       <c r="Q38" s="29"/>
     </row>
     <row r="39" ht="18.75" spans="1:17">
-      <c r="A39" s="11">
+      <c r="A39" s="12">
         <v>36</v>
       </c>
-      <c r="B39" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="E39" s="18" t="s">
+      <c r="B39" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
+      <c r="C39" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
       <c r="J39" s="29"/>
       <c r="K39" s="29"/>
       <c r="L39" s="29"/>
@@ -2687,15 +2732,15 @@
       <c r="Q39" s="29"/>
     </row>
     <row r="40" ht="18.75" spans="1:17">
-      <c r="A40" s="11"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
       <c r="J40" s="29"/>
       <c r="K40" s="29"/>
       <c r="L40" s="29"/>
@@ -2706,15 +2751,15 @@
       <c r="Q40" s="29"/>
     </row>
     <row r="41" ht="18.75" spans="1:17">
-      <c r="A41" s="11"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
       <c r="J41" s="29"/>
       <c r="K41" s="29"/>
       <c r="L41" s="29"/>
@@ -2725,15 +2770,15 @@
       <c r="Q41" s="29"/>
     </row>
     <row r="42" ht="18.75" spans="1:17">
-      <c r="A42" s="11"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
       <c r="J42" s="29"/>
       <c r="K42" s="29"/>
       <c r="L42" s="29"/>
@@ -2744,15 +2789,15 @@
       <c r="Q42" s="29"/>
     </row>
     <row r="43" ht="18.75" spans="1:17">
-      <c r="A43" s="11"/>
+      <c r="A43" s="12"/>
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
       <c r="D43" s="23"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
       <c r="J43" s="29"/>
       <c r="K43" s="29"/>
       <c r="L43" s="29"/>
@@ -2765,7 +2810,7 @@
     <row r="44" spans="7:17">
       <c r="G44" s="24"/>
       <c r="I44" s="30" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J44" s="30">
         <v>0</v>
@@ -2797,10 +2842,10 @@
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="25" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="2:3">
@@ -2809,18 +2854,18 @@
     </row>
     <row r="53" spans="2:4">
       <c r="B53" s="25" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="27" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C54" s="26"/>
       <c r="D54" s="27">
@@ -2829,7 +2874,7 @@
     </row>
     <row r="55" spans="2:4">
       <c r="B55" s="27" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C55" s="26"/>
       <c r="D55" s="27">
@@ -2838,7 +2883,7 @@
     </row>
     <row r="56" spans="2:4">
       <c r="B56" s="27" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C56" s="26"/>
       <c r="D56" s="27">
@@ -2847,7 +2892,7 @@
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="27" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C57" s="26"/>
       <c r="D57" s="27">

--- a/FY21Q1-K8S-2培训签到表(2020.11.26-2020.12.22) - to诺达.xlsx
+++ b/FY21Q1-K8S-2培训签到表(2020.11.26-2020.12.22) - to诺达.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="124">
   <si>
     <t xml:space="preserve">思科大连CX Center Training FY21Q1 K8S-2培训签到表
 (培训时间：11月26日-12月22日)     </t>
@@ -394,9 +394,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
@@ -495,20 +495,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -516,7 +502,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -530,6 +516,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -538,7 +539,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,22 +584,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -575,18 +591,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -598,21 +607,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -629,6 +623,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -637,9 +638,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -666,6 +666,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -678,37 +708,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,133 +846,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,15 +900,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -945,15 +936,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -986,6 +968,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -994,16 +985,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1012,134 +1012,134 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1552,7 +1552,7 @@
   <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1660,7 +1660,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="18.75" spans="1:17">
+    <row r="4" s="2" customFormat="1" ht="18" customHeight="1" spans="1:17">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -1691,7 +1691,7 @@
       <c r="P4" s="28"/>
       <c r="Q4" s="28"/>
     </row>
-    <row r="5" s="2" customFormat="1" ht="18.75" spans="1:17">
+    <row r="5" s="2" customFormat="1" ht="18" customHeight="1" spans="1:17">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -1720,7 +1720,7 @@
       <c r="P5" s="28"/>
       <c r="Q5" s="28"/>
     </row>
-    <row r="6" ht="18.75" spans="1:17">
+    <row r="6" ht="18" customHeight="1" spans="1:17">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -1749,7 +1749,7 @@
       <c r="P6" s="29"/>
       <c r="Q6" s="29"/>
     </row>
-    <row r="7" ht="18.75" spans="1:17">
+    <row r="7" ht="18" customHeight="1" spans="1:17">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -1777,7 +1777,7 @@
       <c r="P7" s="29"/>
       <c r="Q7" s="29"/>
     </row>
-    <row r="8" ht="18.75" spans="1:17">
+    <row r="8" ht="18" customHeight="1" spans="1:17">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -1806,7 +1806,7 @@
       <c r="P8" s="29"/>
       <c r="Q8" s="29"/>
     </row>
-    <row r="9" ht="18.75" spans="1:17">
+    <row r="9" ht="18" customHeight="1" spans="1:17">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -1835,7 +1835,7 @@
       <c r="P9" s="29"/>
       <c r="Q9" s="29"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="18.75" spans="1:17">
+    <row r="10" s="2" customFormat="1" ht="18" customHeight="1" spans="1:17">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -1864,7 +1864,7 @@
       <c r="P10" s="28"/>
       <c r="Q10" s="28"/>
     </row>
-    <row r="11" s="2" customFormat="1" ht="18.75" spans="1:17">
+    <row r="11" s="2" customFormat="1" ht="18" customHeight="1" spans="1:17">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -1893,7 +1893,7 @@
       <c r="P11" s="28"/>
       <c r="Q11" s="28"/>
     </row>
-    <row r="12" s="2" customFormat="1" ht="18.75" spans="1:17">
+    <row r="12" s="2" customFormat="1" ht="18" customHeight="1" spans="1:17">
       <c r="A12" s="12">
         <v>9</v>
       </c>
@@ -1922,7 +1922,7 @@
       <c r="P12" s="28"/>
       <c r="Q12" s="28"/>
     </row>
-    <row r="13" ht="18.75" spans="1:17">
+    <row r="13" ht="18" customHeight="1" spans="1:17">
       <c r="A13" s="12">
         <v>10</v>
       </c>
@@ -1953,7 +1953,7 @@
       <c r="P13" s="29"/>
       <c r="Q13" s="29"/>
     </row>
-    <row r="14" ht="18.75" spans="1:17">
+    <row r="14" ht="18" customHeight="1" spans="1:17">
       <c r="A14" s="12">
         <v>11</v>
       </c>
@@ -1984,7 +1984,7 @@
       <c r="P14" s="29"/>
       <c r="Q14" s="29"/>
     </row>
-    <row r="15" ht="18.75" spans="1:17">
+    <row r="15" ht="18" customHeight="1" spans="1:17">
       <c r="A15" s="12">
         <v>12</v>
       </c>
@@ -2013,7 +2013,7 @@
       <c r="P15" s="29"/>
       <c r="Q15" s="29"/>
     </row>
-    <row r="16" s="2" customFormat="1" ht="18.75" spans="1:17">
+    <row r="16" s="2" customFormat="1" ht="18" customHeight="1" spans="1:17">
       <c r="A16" s="12">
         <v>13</v>
       </c>
@@ -2044,7 +2044,7 @@
       <c r="P16" s="28"/>
       <c r="Q16" s="28"/>
     </row>
-    <row r="17" ht="18.75" spans="1:17">
+    <row r="17" ht="18" customHeight="1" spans="1:17">
       <c r="A17" s="12">
         <v>14</v>
       </c>
@@ -2073,7 +2073,7 @@
       <c r="P17" s="29"/>
       <c r="Q17" s="29"/>
     </row>
-    <row r="18" ht="18.75" spans="1:17">
+    <row r="18" ht="18" customHeight="1" spans="1:17">
       <c r="A18" s="12">
         <v>15</v>
       </c>
@@ -2104,7 +2104,7 @@
       <c r="P18" s="29"/>
       <c r="Q18" s="29"/>
     </row>
-    <row r="19" ht="18.75" spans="1:17">
+    <row r="19" ht="18" customHeight="1" spans="1:17">
       <c r="A19" s="12">
         <v>16</v>
       </c>
@@ -2135,7 +2135,7 @@
       <c r="P19" s="29"/>
       <c r="Q19" s="29"/>
     </row>
-    <row r="20" ht="18.75" spans="1:17">
+    <row r="20" ht="18" customHeight="1" spans="1:17">
       <c r="A20" s="12">
         <v>17</v>
       </c>
@@ -2166,7 +2166,7 @@
       <c r="P20" s="29"/>
       <c r="Q20" s="29"/>
     </row>
-    <row r="21" s="2" customFormat="1" ht="18.75" spans="1:17">
+    <row r="21" s="2" customFormat="1" ht="18" customHeight="1" spans="1:17">
       <c r="A21" s="12">
         <v>18</v>
       </c>
@@ -2195,7 +2195,7 @@
       <c r="P21" s="28"/>
       <c r="Q21" s="28"/>
     </row>
-    <row r="22" s="2" customFormat="1" ht="18.75" spans="1:17">
+    <row r="22" s="2" customFormat="1" ht="18" customHeight="1" spans="1:17">
       <c r="A22" s="12">
         <v>19</v>
       </c>
@@ -2224,7 +2224,7 @@
       <c r="P22" s="28"/>
       <c r="Q22" s="28"/>
     </row>
-    <row r="23" ht="18.75" spans="1:17">
+    <row r="23" ht="18" customHeight="1" spans="1:17">
       <c r="A23" s="12">
         <v>20</v>
       </c>
@@ -2255,7 +2255,7 @@
       <c r="P23" s="29"/>
       <c r="Q23" s="29"/>
     </row>
-    <row r="24" ht="18.75" spans="1:17">
+    <row r="24" ht="18" customHeight="1" spans="1:17">
       <c r="A24" s="12">
         <v>21</v>
       </c>
@@ -2286,7 +2286,7 @@
       <c r="P24" s="29"/>
       <c r="Q24" s="29"/>
     </row>
-    <row r="25" ht="18.75" spans="1:17">
+    <row r="25" ht="18" customHeight="1" spans="1:17">
       <c r="A25" s="12">
         <v>22</v>
       </c>
@@ -2317,7 +2317,7 @@
       <c r="P25" s="29"/>
       <c r="Q25" s="29"/>
     </row>
-    <row r="26" ht="18.75" spans="1:17">
+    <row r="26" ht="18" customHeight="1" spans="1:17">
       <c r="A26" s="12">
         <v>23</v>
       </c>
@@ -2348,7 +2348,7 @@
       <c r="P26" s="29"/>
       <c r="Q26" s="29"/>
     </row>
-    <row r="27" ht="18.75" spans="1:17">
+    <row r="27" ht="18" customHeight="1" spans="1:17">
       <c r="A27" s="12">
         <v>24</v>
       </c>
@@ -2377,7 +2377,7 @@
       <c r="P27" s="29"/>
       <c r="Q27" s="29"/>
     </row>
-    <row r="28" ht="18.75" spans="1:17">
+    <row r="28" ht="18" customHeight="1" spans="1:17">
       <c r="A28" s="12">
         <v>25</v>
       </c>
@@ -2406,7 +2406,7 @@
       <c r="P28" s="29"/>
       <c r="Q28" s="29"/>
     </row>
-    <row r="29" ht="18.75" spans="1:17">
+    <row r="29" ht="18" customHeight="1" spans="1:17">
       <c r="A29" s="12">
         <v>26</v>
       </c>
@@ -2434,7 +2434,7 @@
       <c r="P29" s="29"/>
       <c r="Q29" s="29"/>
     </row>
-    <row r="30" ht="18.75" spans="1:17">
+    <row r="30" ht="18" customHeight="1" spans="1:17">
       <c r="A30" s="12">
         <v>27</v>
       </c>
@@ -2463,7 +2463,7 @@
       <c r="P30" s="29"/>
       <c r="Q30" s="29"/>
     </row>
-    <row r="31" ht="18.75" spans="1:17">
+    <row r="31" ht="18" customHeight="1" spans="1:17">
       <c r="A31" s="12">
         <v>28</v>
       </c>
@@ -2479,7 +2479,9 @@
       <c r="E31" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F31" s="20"/>
+      <c r="F31" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="G31" s="20"/>
       <c r="H31" s="20"/>
       <c r="I31" s="20"/>
@@ -2492,7 +2494,7 @@
       <c r="P31" s="29"/>
       <c r="Q31" s="29"/>
     </row>
-    <row r="32" ht="18.75" spans="1:17">
+    <row r="32" ht="18" customHeight="1" spans="1:17">
       <c r="A32" s="12">
         <v>29</v>
       </c>
@@ -2523,7 +2525,7 @@
       <c r="P32" s="29"/>
       <c r="Q32" s="29"/>
     </row>
-    <row r="33" s="2" customFormat="1" ht="18.75" spans="1:17">
+    <row r="33" s="2" customFormat="1" ht="18" customHeight="1" spans="1:17">
       <c r="A33" s="12">
         <v>30</v>
       </c>
@@ -2539,7 +2541,9 @@
       <c r="E33" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="F33" s="17"/>
+      <c r="F33" s="17" t="s">
+        <v>43</v>
+      </c>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
@@ -2552,7 +2556,7 @@
       <c r="P33" s="28"/>
       <c r="Q33" s="28"/>
     </row>
-    <row r="34" ht="18.75" spans="1:17">
+    <row r="34" ht="18" customHeight="1" spans="1:17">
       <c r="A34" s="12">
         <v>31</v>
       </c>
@@ -2583,7 +2587,7 @@
       <c r="P34" s="29"/>
       <c r="Q34" s="29"/>
     </row>
-    <row r="35" s="2" customFormat="1" ht="18.75" spans="1:17">
+    <row r="35" s="2" customFormat="1" ht="18" customHeight="1" spans="1:17">
       <c r="A35" s="12">
         <v>32</v>
       </c>
@@ -2612,7 +2616,7 @@
       <c r="P35" s="28"/>
       <c r="Q35" s="28"/>
     </row>
-    <row r="36" s="2" customFormat="1" ht="18.75" spans="1:17">
+    <row r="36" s="2" customFormat="1" ht="18" customHeight="1" spans="1:17">
       <c r="A36" s="12">
         <v>33</v>
       </c>
@@ -2643,7 +2647,7 @@
       <c r="P36" s="28"/>
       <c r="Q36" s="28"/>
     </row>
-    <row r="37" ht="18.75" spans="1:17">
+    <row r="37" ht="18" customHeight="1" spans="1:17">
       <c r="A37" s="12">
         <v>34</v>
       </c>
@@ -2674,7 +2678,7 @@
       <c r="P37" s="29"/>
       <c r="Q37" s="29"/>
     </row>
-    <row r="38" ht="18.75" spans="1:17">
+    <row r="38" ht="18" customHeight="1" spans="1:17">
       <c r="A38" s="12">
         <v>35</v>
       </c>
@@ -2703,7 +2707,7 @@
       <c r="P38" s="29"/>
       <c r="Q38" s="29"/>
     </row>
-    <row r="39" ht="18.75" spans="1:17">
+    <row r="39" ht="18" customHeight="1" spans="1:17">
       <c r="A39" s="12">
         <v>36</v>
       </c>
@@ -2731,7 +2735,7 @@
       <c r="P39" s="29"/>
       <c r="Q39" s="29"/>
     </row>
-    <row r="40" ht="18.75" spans="1:17">
+    <row r="40" ht="18" customHeight="1" spans="1:17">
       <c r="A40" s="12"/>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
@@ -2750,7 +2754,7 @@
       <c r="P40" s="29"/>
       <c r="Q40" s="29"/>
     </row>
-    <row r="41" ht="18.75" spans="1:17">
+    <row r="41" ht="18" customHeight="1" spans="1:17">
       <c r="A41" s="12"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
@@ -2769,7 +2773,7 @@
       <c r="P41" s="29"/>
       <c r="Q41" s="29"/>
     </row>
-    <row r="42" ht="18.75" spans="1:17">
+    <row r="42" ht="18" customHeight="1" spans="1:17">
       <c r="A42" s="12"/>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
@@ -2788,7 +2792,7 @@
       <c r="P42" s="29"/>
       <c r="Q42" s="29"/>
     </row>
-    <row r="43" ht="18.75" spans="1:17">
+    <row r="43" ht="18" customHeight="1" spans="1:17">
       <c r="A43" s="12"/>
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
@@ -2807,7 +2811,7 @@
       <c r="P43" s="29"/>
       <c r="Q43" s="29"/>
     </row>
-    <row r="44" spans="7:17">
+    <row r="44" ht="18" customHeight="1" spans="7:17">
       <c r="G44" s="24"/>
       <c r="I44" s="30" t="s">
         <v>115</v>
@@ -2837,10 +2841,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="7:7">
+    <row r="45" ht="18" customHeight="1" spans="7:7">
       <c r="G45" s="24"/>
     </row>
-    <row r="49" spans="2:3">
+    <row r="46" ht="18" customHeight="1"/>
+    <row r="47" ht="18" customHeight="1"/>
+    <row r="48" ht="18" customHeight="1"/>
+    <row r="49" ht="18" customHeight="1" spans="2:3">
       <c r="B49" s="25" t="s">
         <v>116</v>
       </c>
@@ -2848,7 +2855,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" ht="18" customHeight="1" spans="2:3">
       <c r="B50" s="26"/>
       <c r="C50" s="26"/>
     </row>
